--- a/BWB_GUI/test.xlsx
+++ b/BWB_GUI/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tageb\OneDrive\Desktop\Homework\Fall2024\Capstone\GitHub_Repository\Capstone_BWB\BWB_GUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\Capstone\Capstone_BWB\BWB_GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE45E8F-DBC5-4399-8885-20CF26071F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46AC6CC9-956D-4243-B6BD-1703DC295A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,30 +396,30 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>4</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="e">
         <f>A1 + 5</f>
-        <v>9</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
